--- a/results/RIMP9_260213-1350/ReqPowDATA.xlsx
+++ b/results/RIMP9_260213-1350/ReqPowDATA.xlsx
@@ -502,64 +502,64 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.2771487442331</v>
+        <v>47.56996222977563</v>
       </c>
       <c r="C2" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="D2" t="n">
-        <v>869.8132522664566</v>
+        <v>928.5275855674497</v>
       </c>
       <c r="E2" t="n">
-        <v>905.542974884662</v>
+        <v>951.3992445955126</v>
       </c>
       <c r="F2" t="n">
-        <v>905.542974884662</v>
+        <v>951.3992445955126</v>
       </c>
       <c r="G2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="H2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="I2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="J2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="K2" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="L2" t="n">
-        <v>905.542974884662</v>
+        <v>951.3992445955126</v>
       </c>
       <c r="M2" t="n">
-        <v>905.542974884662</v>
+        <v>951.3992445955126</v>
       </c>
       <c r="N2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="O2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="P2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="Q2" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="R2" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="S2" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="T2" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="U2" t="n">
-        <v>45.2771487442331</v>
+        <v>47.56996222977563</v>
       </c>
     </row>
     <row r="3">
@@ -569,64 +569,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.2771487442331</v>
+        <v>47.56996222977563</v>
       </c>
       <c r="C3" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="D3" t="n">
-        <v>691.537946206648</v>
+        <v>739.4386194929428</v>
       </c>
       <c r="E3" t="n">
-        <v>727.2676688248534</v>
+        <v>762.3102785210058</v>
       </c>
       <c r="F3" t="n">
-        <v>727.2676688248534</v>
+        <v>762.3102785210058</v>
       </c>
       <c r="G3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="H3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="I3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="J3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="K3" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="L3" t="n">
-        <v>727.2676688248534</v>
+        <v>762.3102785210058</v>
       </c>
       <c r="M3" t="n">
-        <v>727.2676688248534</v>
+        <v>762.3102785210058</v>
       </c>
       <c r="N3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="O3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="P3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="Q3" t="n">
-        <v>996.8157969415172</v>
+        <v>1035.373470851804</v>
       </c>
       <c r="R3" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="S3" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="T3" t="n">
-        <v>90.5542974884662</v>
+        <v>95.13992445955127</v>
       </c>
       <c r="U3" t="n">
-        <v>45.2771487442331</v>
+        <v>47.56996222977563</v>
       </c>
     </row>
     <row r="4">
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>178.2753060598086</v>
+        <v>189.0889660745069</v>
       </c>
       <c r="E4" t="n">
-        <v>178.2753060598086</v>
+        <v>189.0889660745069</v>
       </c>
       <c r="F4" t="n">
-        <v>178.2753060598086</v>
+        <v>189.0889660745069</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>178.2753060598086</v>
+        <v>189.0889660745069</v>
       </c>
       <c r="M4" t="n">
-        <v>178.2753060598086</v>
+        <v>189.0889660745069</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
